--- a/a.xlsx
+++ b/a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BD460-2DEC-4388-85CF-5292F0FC004D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82670544-60F3-40CB-AEA5-47219ECE16FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">cím </t>
   </si>
@@ -74,16 +74,115 @@
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elijah Wood, Ian McKellen, Orlando Bloom, Viggo Mortensen </t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>angol</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>A keresztapa</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>Francis For Coppola</t>
+  </si>
+  <si>
+    <t>Marlo Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>krimi, dráma</t>
+  </si>
+  <si>
+    <t>Hetedik</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>Darius Khonji</t>
+  </si>
+  <si>
+    <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t>krimi, dráma, rejtély</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>vígjáték, krimi</t>
+  </si>
+  <si>
+    <t>Jason Statham, Brad Pritt, Stephen Graham</t>
+  </si>
+  <si>
+    <t>Tim Maurice-Jones</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
+  </si>
+  <si>
+    <t>John Murphy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,13 +205,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,11 +510,11 @@
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -473,8 +580,156 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>178</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1972</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>127</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.imdb.com/name/nm0000704/?ref_=tt_cl_t_1" xr:uid="{DF8F3D2C-C10B-430C-8C87-EDA2BE508E36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>